--- a/biology/Zoologie/Ikakogi_tayrona/Ikakogi_tayrona.xlsx
+++ b/biology/Zoologie/Ikakogi_tayrona/Ikakogi_tayrona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ikakogi tayrona, unique représentant du genre Ikakogi, est une espèce d'amphibiens de la famille des Centrolenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ikakogi tayrona, unique représentant du genre Ikakogi, est une espèce d'amphibiens de la famille des Centrolenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département de Magdalena en Colombie[1]. Elle se rencontre entre 980 et 1 790 m d'altitude dans la Sierra Nevada de Santa Marta.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département de Magdalena en Colombie. Elle se rencontre entre 980 et 1 790 m d'altitude dans la Sierra Nevada de Santa Marta.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 28,2 à 30,6 mm et les femelles de 28,2 à 30,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 28,2 à 30,6 mm et les femelles de 28,2 à 30,8 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle « couve » ses œufs pour les protéger, ce qui est un comportement rare chez les grenouilles[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle « couve » ses œufs pour les protéger, ce qui est un comportement rare chez les grenouilles.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est nommé en l'honneur des Ika et des Kogi, peuples descendants des Tayronas honorés par le nom de l'espèce[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est nommé en l'honneur des Ika et des Kogi, peuples descendants des Tayronas honorés par le nom de l'espèce.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(es) Ruiz-Carranza &amp; Lynch, 1991 : Ranas Centrolenidae de Colombia II. Nuevas especies de Centrolene  de la Cordillera Oriental y Sierra Nevada de Santa Marta. Lozania, vol. 58, p. 1-26.
 (en) Guayasamin, Castroviejo-Fisher, Trueb, Ayarzagüena, Rada &amp; Vilà, 2009 : Phylogenetic systematics of Glassfrogs (Amphibia: Centrolenidae) and their sister taxon Allophryne ruthveni. Zootaxa, no 2100, p. 1–97 (texte intégral).</t>
